--- a/converter/data/xlsx/27.2.B_SMJENA.XLSX
+++ b/converter/data/xlsx/27.2.B_SMJENA.XLSX
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27969C3D-0D41-43B1-82AA-32630E39174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12450" tabRatio="478"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -443,8 +449,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3112,6 +3118,48 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3142,62 +3190,20 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Normalno 4" xfId="6"/>
-    <cellStyle name="Normalno 5" xfId="7"/>
-    <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3241,7 +3247,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,7 +3302,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8797726-BF70-4E16-A975-6D1F2DD24751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8797726-BF70-4E16-A975-6D1F2DD24751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,7 +3362,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AE2CC0B-FF1D-EB0D-2373-2CC052AE28E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE2CC0B-FF1D-EB0D-2373-2CC052AE28E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3415,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFD090F2-2EC1-BCBF-8DD9-A43B8BFA562A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD090F2-2EC1-BCBF-8DD9-A43B8BFA562A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3468,7 @@
         <xdr:cNvPr id="8" name="Ravni poveznik sa strelicom 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E16EA508-22CD-7922-77FB-4F28EACC0F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16EA508-22CD-7922-77FB-4F28EACC0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,7 +3521,7 @@
         <xdr:cNvPr id="10" name="Ravni poveznik sa strelicom 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C915CF20-1A10-F7E6-1B9F-E5162E3EE089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C915CF20-1A10-F7E6-1B9F-E5162E3EE089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,7 +3574,7 @@
         <xdr:cNvPr id="12" name="Ravni poveznik sa strelicom 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{480101EA-36EF-3D29-FF38-57021B448312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480101EA-36EF-3D29-FF38-57021B448312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,7 +3613,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3649,7 +3655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3681,9 +3687,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3715,6 +3739,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3890,141 +3932,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29:W29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="16" width="6.28515625" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="6" customWidth="1"/>
-    <col min="24" max="25" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.5703125" style="6" customWidth="1"/>
-    <col min="29" max="30" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="6" customWidth="1"/>
-    <col min="32" max="33" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="6" customWidth="1"/>
+    <col min="24" max="25" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.5546875" style="6" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.6640625" style="6" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.5546875" style="6" customWidth="1"/>
     <col min="36" max="36" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" style="6" customWidth="1"/>
-    <col min="38" max="38" width="6.5703125" style="6" customWidth="1"/>
-    <col min="39" max="39" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.28515625" style="1"/>
+    <col min="37" max="37" width="5.6640625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="6.5546875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="27" thickBot="1">
-      <c r="A1" s="440" t="s">
+    <row r="1" spans="1:39" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="431" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="440"/>
-      <c r="E1" s="440"/>
-      <c r="F1" s="440"/>
-      <c r="G1" s="440"/>
-      <c r="H1" s="440"/>
-      <c r="I1" s="440"/>
-      <c r="J1" s="440"/>
-      <c r="K1" s="440"/>
-      <c r="L1" s="440"/>
-      <c r="M1" s="440"/>
-      <c r="N1" s="440"/>
-      <c r="O1" s="440"/>
-      <c r="P1" s="440"/>
-      <c r="Q1" s="440"/>
-      <c r="R1" s="440"/>
-      <c r="S1" s="440"/>
-      <c r="T1" s="440"/>
-      <c r="U1" s="440"/>
-      <c r="V1" s="440"/>
-      <c r="W1" s="440"/>
-      <c r="X1" s="440"/>
-      <c r="Y1" s="440"/>
-      <c r="Z1" s="440"/>
-      <c r="AA1" s="440"/>
-      <c r="AB1" s="440"/>
-      <c r="AC1" s="440"/>
-      <c r="AD1" s="440"/>
-      <c r="AE1" s="440"/>
-      <c r="AF1" s="440"/>
-      <c r="AG1" s="440"/>
-      <c r="AH1" s="440"/>
-      <c r="AI1" s="440"/>
-      <c r="AJ1" s="440"/>
-      <c r="AK1" s="440"/>
-      <c r="AL1" s="440"/>
-    </row>
-    <row r="2" spans="1:39" ht="18">
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
+      <c r="N1" s="431"/>
+      <c r="O1" s="431"/>
+      <c r="P1" s="431"/>
+      <c r="Q1" s="431"/>
+      <c r="R1" s="431"/>
+      <c r="S1" s="431"/>
+      <c r="T1" s="431"/>
+      <c r="U1" s="431"/>
+      <c r="V1" s="431"/>
+      <c r="W1" s="431"/>
+      <c r="X1" s="431"/>
+      <c r="Y1" s="431"/>
+      <c r="Z1" s="431"/>
+      <c r="AA1" s="431"/>
+      <c r="AB1" s="431"/>
+      <c r="AC1" s="431"/>
+      <c r="AD1" s="431"/>
+      <c r="AE1" s="431"/>
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="431"/>
+      <c r="AH1" s="431"/>
+      <c r="AI1" s="431"/>
+      <c r="AJ1" s="431"/>
+      <c r="AK1" s="431"/>
+      <c r="AL1" s="431"/>
+    </row>
+    <row r="2" spans="1:39" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="447" t="s">
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="438" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="448"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="448"/>
-      <c r="M2" s="448"/>
-      <c r="N2" s="448"/>
-      <c r="O2" s="448"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="441" t="s">
+      <c r="J2" s="439"/>
+      <c r="K2" s="439"/>
+      <c r="L2" s="439"/>
+      <c r="M2" s="439"/>
+      <c r="N2" s="439"/>
+      <c r="O2" s="439"/>
+      <c r="P2" s="440"/>
+      <c r="Q2" s="432" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="442"/>
-      <c r="S2" s="442"/>
-      <c r="T2" s="442"/>
-      <c r="U2" s="442"/>
-      <c r="V2" s="442"/>
-      <c r="W2" s="443"/>
-      <c r="X2" s="447" t="s">
+      <c r="R2" s="433"/>
+      <c r="S2" s="433"/>
+      <c r="T2" s="433"/>
+      <c r="U2" s="433"/>
+      <c r="V2" s="433"/>
+      <c r="W2" s="434"/>
+      <c r="X2" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="448"/>
-      <c r="Z2" s="448"/>
-      <c r="AA2" s="448"/>
-      <c r="AB2" s="448"/>
-      <c r="AC2" s="448"/>
-      <c r="AD2" s="448"/>
-      <c r="AE2" s="449"/>
-      <c r="AF2" s="444" t="s">
+      <c r="Y2" s="439"/>
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="439"/>
+      <c r="AB2" s="439"/>
+      <c r="AC2" s="439"/>
+      <c r="AD2" s="439"/>
+      <c r="AE2" s="440"/>
+      <c r="AF2" s="435" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="445"/>
-      <c r="AH2" s="445"/>
-      <c r="AI2" s="445"/>
-      <c r="AJ2" s="445"/>
-      <c r="AK2" s="445"/>
-      <c r="AL2" s="446"/>
-    </row>
-    <row r="3" spans="1:39" ht="15.75" thickBot="1">
+      <c r="AG2" s="436"/>
+      <c r="AH2" s="436"/>
+      <c r="AI2" s="436"/>
+      <c r="AJ2" s="436"/>
+      <c r="AK2" s="436"/>
+      <c r="AL2" s="437"/>
+    </row>
+    <row r="3" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:39" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>48</v>
       </c>
@@ -4220,7 +4262,7 @@
       <c r="AK4" s="118"/>
       <c r="AL4" s="136"/>
     </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1">
+    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
@@ -4304,7 +4346,7 @@
       <c r="AK5" s="124"/>
       <c r="AL5" s="141"/>
     </row>
-    <row r="6" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>35</v>
       </c>
@@ -4366,7 +4408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="18" customHeight="1">
+    <row r="7" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
@@ -4448,7 +4490,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" customHeight="1">
+    <row r="8" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>50</v>
       </c>
@@ -4522,7 +4564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" customHeight="1">
+    <row r="9" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>36</v>
       </c>
@@ -4602,7 +4644,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4692,7 @@
       <c r="AK10" s="81"/>
       <c r="AL10" s="67"/>
     </row>
-    <row r="11" spans="1:39" ht="18" customHeight="1">
+    <row r="11" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>13</v>
       </c>
@@ -4718,7 +4760,7 @@
       <c r="AK11" s="119"/>
       <c r="AL11" s="131"/>
     </row>
-    <row r="12" spans="1:39" ht="18" customHeight="1">
+    <row r="12" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
@@ -4764,7 +4806,7 @@
       <c r="AK12" s="131"/>
       <c r="AL12" s="131"/>
     </row>
-    <row r="13" spans="1:39" ht="18" customHeight="1">
+    <row r="13" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>11</v>
       </c>
@@ -4831,7 +4873,7 @@
       <c r="AL13" s="120"/>
       <c r="AM13" s="21"/>
     </row>
-    <row r="14" spans="1:39" ht="18" customHeight="1">
+    <row r="14" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>10</v>
       </c>
@@ -4896,7 +4938,7 @@
       <c r="AL14" s="131"/>
       <c r="AM14" s="21"/>
     </row>
-    <row r="15" spans="1:39" ht="18" customHeight="1">
+    <row r="15" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>24</v>
       </c>
@@ -4947,7 +4989,7 @@
       <c r="AL15" s="131"/>
       <c r="AM15" s="21"/>
     </row>
-    <row r="16" spans="1:39" ht="18" customHeight="1">
+    <row r="16" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>31</v>
       </c>
@@ -5020,7 +5062,7 @@
       <c r="AL16" s="131"/>
       <c r="AM16" s="21"/>
     </row>
-    <row r="17" spans="1:41" ht="18" customHeight="1">
+    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
@@ -5079,7 +5121,7 @@
       <c r="AL17" s="120"/>
       <c r="AM17" s="21"/>
     </row>
-    <row r="18" spans="1:41" ht="18" customHeight="1" thickBot="1">
+    <row r="18" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -5139,7 +5181,7 @@
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
     </row>
-    <row r="19" spans="1:41" ht="18" customHeight="1">
+    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>33</v>
       </c>
@@ -5188,7 +5230,7 @@
       <c r="AL19" s="139"/>
       <c r="AO19" s="21"/>
     </row>
-    <row r="20" spans="1:41" ht="18" customHeight="1">
+    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +5302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="18" customHeight="1">
+    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>37</v>
       </c>
@@ -5346,7 +5388,7 @@
       </c>
       <c r="AN21" s="21"/>
     </row>
-    <row r="22" spans="1:41" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
         <v>118</v>
       </c>
@@ -5427,7 +5469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="18" customHeight="1">
+    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>22</v>
       </c>
@@ -5497,7 +5539,7 @@
       </c>
       <c r="AN23" s="33"/>
     </row>
-    <row r="24" spans="1:41" ht="18" customHeight="1">
+    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>83</v>
       </c>
@@ -5571,7 +5613,7 @@
       </c>
       <c r="AN24" s="34"/>
     </row>
-    <row r="25" spans="1:41" ht="18" customHeight="1">
+    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>52</v>
       </c>
@@ -5659,7 +5701,7 @@
       </c>
       <c r="AN25" s="34"/>
     </row>
-    <row r="26" spans="1:41" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
         <v>21</v>
       </c>
@@ -5724,7 +5766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="18" customHeight="1">
+    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>20</v>
       </c>
@@ -5799,7 +5841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="18" customHeight="1">
+    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>133</v>
       </c>
@@ -5886,7 +5928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="18" customHeight="1">
+    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>132</v>
       </c>
@@ -5963,7 +6005,7 @@
       </c>
       <c r="AM29" s="26"/>
     </row>
-    <row r="30" spans="1:41" ht="18" customHeight="1">
+    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>5</v>
       </c>
@@ -6016,7 +6058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="18" customHeight="1">
+    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
@@ -6068,7 +6110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="18" customHeight="1">
+    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>97</v>
       </c>
@@ -6157,7 +6199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1">
+    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>98</v>
       </c>
@@ -6240,7 +6282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="45" t="s">
         <v>6</v>
       </c>
@@ -6319,7 +6361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1">
+    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>110</v>
       </c>
@@ -6396,7 +6438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1">
+    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>109</v>
       </c>
@@ -6449,7 +6491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1">
+    <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>116</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1">
+    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>117</v>
       </c>
@@ -6573,7 +6615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1">
+    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>111</v>
       </c>
@@ -6619,7 +6661,7 @@
       <c r="AK39" s="139"/>
       <c r="AL39" s="181"/>
     </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1">
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>23</v>
       </c>
@@ -6665,7 +6707,7 @@
       <c r="AK40" s="139"/>
       <c r="AL40" s="139"/>
     </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="41" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="45" t="s">
         <v>104</v>
       </c>
@@ -6717,7 +6759,7 @@
       <c r="AK41" s="81"/>
       <c r="AL41" s="67"/>
     </row>
-    <row r="42" spans="1:39" ht="22.15" customHeight="1">
+    <row r="42" spans="1:39" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>12</v>
       </c>
@@ -6778,7 +6820,7 @@
       </c>
       <c r="AM42" s="20"/>
     </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1">
+    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>34</v>
       </c>
@@ -6833,7 +6875,7 @@
       <c r="AL43" s="139"/>
       <c r="AM43" s="20"/>
     </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1">
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>39</v>
       </c>
@@ -6922,7 +6964,7 @@
       <c r="AL44" s="139"/>
       <c r="AM44" s="20"/>
     </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="45" t="s">
         <v>53</v>
       </c>
@@ -6971,7 +7013,7 @@
       <c r="AL45" s="139"/>
       <c r="AM45" s="20"/>
     </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1">
+    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
         <v>54</v>
       </c>
@@ -7053,9 +7095,9 @@
       </c>
       <c r="AL46" s="130"/>
     </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1">
+    <row r="47" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="61"/>
@@ -7099,9 +7141,9 @@
       <c r="AK47" s="108"/>
       <c r="AL47" s="120"/>
     </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="48" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B48" s="98"/>
       <c r="C48" s="58"/>
@@ -7161,7 +7203,7 @@
       <c r="AK48" s="81"/>
       <c r="AL48" s="67"/>
     </row>
-    <row r="49" spans="1:40" ht="18" customHeight="1">
+    <row r="49" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>44</v>
       </c>
@@ -7254,7 +7296,7 @@
       </c>
       <c r="AM49" s="21"/>
     </row>
-    <row r="50" spans="1:40" ht="18" customHeight="1">
+    <row r="50" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>99</v>
       </c>
@@ -7305,7 +7347,7 @@
       <c r="AL50" s="346"/>
       <c r="AM50" s="21"/>
     </row>
-    <row r="51" spans="1:40" ht="18" customHeight="1">
+    <row r="51" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>45</v>
       </c>
@@ -7376,7 +7418,7 @@
       <c r="AL51" s="160"/>
       <c r="AM51" s="39"/>
     </row>
-    <row r="52" spans="1:40" ht="18" customHeight="1">
+    <row r="52" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
         <v>43</v>
       </c>
@@ -7431,7 +7473,7 @@
       </c>
       <c r="AM52" s="39"/>
     </row>
-    <row r="53" spans="1:40" ht="18" customHeight="1">
+    <row r="53" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>42</v>
       </c>
@@ -7532,7 +7574,7 @@
       <c r="AL53" s="160"/>
       <c r="AM53" s="40"/>
     </row>
-    <row r="54" spans="1:40" ht="18" customHeight="1">
+    <row r="54" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>46</v>
       </c>
@@ -7604,7 +7646,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="21"/>
     </row>
-    <row r="55" spans="1:40" ht="18" customHeight="1">
+    <row r="55" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>47</v>
       </c>
@@ -7703,7 +7745,7 @@
       <c r="AL55" s="128"/>
       <c r="AM55" s="41"/>
     </row>
-    <row r="56" spans="1:40" ht="18" customHeight="1">
+    <row r="56" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="51" t="s">
         <v>38</v>
       </c>
@@ -7774,7 +7816,7 @@
       <c r="AL56" s="128"/>
       <c r="AM56" s="21"/>
     </row>
-    <row r="57" spans="1:40" ht="18" customHeight="1">
+    <row r="57" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>84</v>
       </c>
@@ -7865,7 +7907,7 @@
       <c r="AL57" s="160"/>
       <c r="AM57" s="21"/>
     </row>
-    <row r="58" spans="1:40" ht="18" customHeight="1">
+    <row r="58" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>55</v>
       </c>
@@ -7936,113 +7978,113 @@
       </c>
       <c r="AM58" s="21"/>
     </row>
-    <row r="59" spans="1:40" ht="18" customHeight="1">
+    <row r="59" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="437" t="s">
+      <c r="B59" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="438"/>
-      <c r="D59" s="438"/>
-      <c r="E59" s="438"/>
-      <c r="F59" s="438"/>
-      <c r="G59" s="438"/>
-      <c r="H59" s="439"/>
-      <c r="I59" s="437" t="s">
+      <c r="C59" s="428"/>
+      <c r="D59" s="428"/>
+      <c r="E59" s="428"/>
+      <c r="F59" s="428"/>
+      <c r="G59" s="428"/>
+      <c r="H59" s="430"/>
+      <c r="I59" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="J59" s="438"/>
-      <c r="K59" s="438"/>
-      <c r="L59" s="438"/>
-      <c r="M59" s="438"/>
-      <c r="N59" s="438"/>
-      <c r="O59" s="439"/>
+      <c r="J59" s="428"/>
+      <c r="K59" s="428"/>
+      <c r="L59" s="428"/>
+      <c r="M59" s="428"/>
+      <c r="N59" s="428"/>
+      <c r="O59" s="430"/>
       <c r="P59" s="278"/>
-      <c r="Q59" s="437" t="s">
+      <c r="Q59" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="R59" s="438"/>
-      <c r="S59" s="438"/>
-      <c r="T59" s="438"/>
-      <c r="U59" s="438"/>
-      <c r="V59" s="438"/>
-      <c r="W59" s="439"/>
-      <c r="X59" s="437" t="s">
+      <c r="R59" s="428"/>
+      <c r="S59" s="428"/>
+      <c r="T59" s="428"/>
+      <c r="U59" s="428"/>
+      <c r="V59" s="428"/>
+      <c r="W59" s="430"/>
+      <c r="X59" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="Y59" s="438"/>
-      <c r="Z59" s="438"/>
-      <c r="AA59" s="438"/>
-      <c r="AB59" s="438"/>
-      <c r="AC59" s="438"/>
-      <c r="AD59" s="439"/>
+      <c r="Y59" s="428"/>
+      <c r="Z59" s="428"/>
+      <c r="AA59" s="428"/>
+      <c r="AB59" s="428"/>
+      <c r="AC59" s="428"/>
+      <c r="AD59" s="430"/>
       <c r="AE59" s="284"/>
-      <c r="AF59" s="437" t="s">
+      <c r="AF59" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="AG59" s="438"/>
-      <c r="AH59" s="438"/>
-      <c r="AI59" s="438"/>
-      <c r="AJ59" s="438"/>
-      <c r="AK59" s="438"/>
-      <c r="AL59" s="450"/>
+      <c r="AG59" s="428"/>
+      <c r="AH59" s="428"/>
+      <c r="AI59" s="428"/>
+      <c r="AJ59" s="428"/>
+      <c r="AK59" s="428"/>
+      <c r="AL59" s="429"/>
       <c r="AM59" s="21"/>
     </row>
-    <row r="60" spans="1:40" ht="18" customHeight="1">
+    <row r="60" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="437" t="s">
+      <c r="B60" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="438"/>
-      <c r="D60" s="438"/>
-      <c r="E60" s="438"/>
-      <c r="F60" s="438"/>
-      <c r="G60" s="438"/>
-      <c r="H60" s="439"/>
-      <c r="I60" s="437" t="s">
+      <c r="C60" s="428"/>
+      <c r="D60" s="428"/>
+      <c r="E60" s="428"/>
+      <c r="F60" s="428"/>
+      <c r="G60" s="428"/>
+      <c r="H60" s="430"/>
+      <c r="I60" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="J60" s="438"/>
-      <c r="K60" s="438"/>
-      <c r="L60" s="438"/>
-      <c r="M60" s="438"/>
-      <c r="N60" s="438"/>
-      <c r="O60" s="439"/>
+      <c r="J60" s="428"/>
+      <c r="K60" s="428"/>
+      <c r="L60" s="428"/>
+      <c r="M60" s="428"/>
+      <c r="N60" s="428"/>
+      <c r="O60" s="430"/>
       <c r="P60" s="278"/>
-      <c r="Q60" s="437" t="s">
+      <c r="Q60" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="R60" s="438"/>
-      <c r="S60" s="438"/>
-      <c r="T60" s="438"/>
-      <c r="U60" s="438"/>
-      <c r="V60" s="438"/>
-      <c r="W60" s="439"/>
-      <c r="X60" s="437" t="s">
+      <c r="R60" s="428"/>
+      <c r="S60" s="428"/>
+      <c r="T60" s="428"/>
+      <c r="U60" s="428"/>
+      <c r="V60" s="428"/>
+      <c r="W60" s="430"/>
+      <c r="X60" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="Y60" s="438"/>
-      <c r="Z60" s="438"/>
-      <c r="AA60" s="438"/>
-      <c r="AB60" s="438"/>
-      <c r="AC60" s="438"/>
-      <c r="AD60" s="439"/>
+      <c r="Y60" s="428"/>
+      <c r="Z60" s="428"/>
+      <c r="AA60" s="428"/>
+      <c r="AB60" s="428"/>
+      <c r="AC60" s="428"/>
+      <c r="AD60" s="430"/>
       <c r="AE60" s="284"/>
-      <c r="AF60" s="437" t="s">
+      <c r="AF60" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="AG60" s="438"/>
-      <c r="AH60" s="438"/>
-      <c r="AI60" s="438"/>
-      <c r="AJ60" s="438"/>
-      <c r="AK60" s="438"/>
-      <c r="AL60" s="450"/>
+      <c r="AG60" s="428"/>
+      <c r="AH60" s="428"/>
+      <c r="AI60" s="428"/>
+      <c r="AJ60" s="428"/>
+      <c r="AK60" s="428"/>
+      <c r="AL60" s="429"/>
       <c r="AM60" s="21"/>
     </row>
-    <row r="61" spans="1:40" ht="18" customHeight="1">
+    <row r="61" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>112</v>
       </c>
@@ -8061,37 +8103,37 @@
       <c r="N61" s="368"/>
       <c r="O61" s="369"/>
       <c r="P61" s="278"/>
-      <c r="Q61" s="437" t="s">
+      <c r="Q61" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="R61" s="438"/>
-      <c r="S61" s="438"/>
-      <c r="T61" s="438"/>
-      <c r="U61" s="450"/>
+      <c r="R61" s="428"/>
+      <c r="S61" s="428"/>
+      <c r="T61" s="428"/>
+      <c r="U61" s="429"/>
       <c r="V61" s="75"/>
       <c r="W61" s="89"/>
-      <c r="X61" s="437" t="s">
+      <c r="X61" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="Y61" s="438"/>
-      <c r="Z61" s="438"/>
-      <c r="AA61" s="438"/>
-      <c r="AB61" s="450"/>
+      <c r="Y61" s="428"/>
+      <c r="Z61" s="428"/>
+      <c r="AA61" s="428"/>
+      <c r="AB61" s="429"/>
       <c r="AC61" s="75"/>
       <c r="AD61" s="89"/>
       <c r="AE61" s="284"/>
-      <c r="AF61" s="437" t="s">
+      <c r="AF61" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="AG61" s="438"/>
-      <c r="AH61" s="438"/>
-      <c r="AI61" s="438"/>
-      <c r="AJ61" s="450"/>
+      <c r="AG61" s="428"/>
+      <c r="AH61" s="428"/>
+      <c r="AI61" s="428"/>
+      <c r="AJ61" s="429"/>
       <c r="AK61" s="75"/>
       <c r="AL61" s="61"/>
       <c r="AM61" s="21"/>
     </row>
-    <row r="62" spans="1:40" ht="20.25" customHeight="1">
+    <row r="62" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>96</v>
       </c>
@@ -8196,7 +8238,7 @@
       </c>
       <c r="AM62" s="22"/>
     </row>
-    <row r="63" spans="1:40" ht="13.5" thickBot="1">
+    <row r="63" spans="1:40" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
       <c r="D63" s="55"/>
@@ -8235,187 +8277,168 @@
       <c r="AK63" s="55"/>
       <c r="AL63" s="55"/>
     </row>
-    <row r="64" spans="1:40" ht="20.25">
+    <row r="64" spans="1:40" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="416" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="429" t="s">
+      <c r="B64" s="443" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="430"/>
-      <c r="D64" s="430"/>
-      <c r="E64" s="430"/>
-      <c r="F64" s="430"/>
-      <c r="G64" s="430"/>
-      <c r="H64" s="431"/>
-      <c r="I64" s="429" t="s">
+      <c r="C64" s="444"/>
+      <c r="D64" s="444"/>
+      <c r="E64" s="444"/>
+      <c r="F64" s="444"/>
+      <c r="G64" s="444"/>
+      <c r="H64" s="445"/>
+      <c r="I64" s="443" t="s">
         <v>123</v>
       </c>
-      <c r="J64" s="430"/>
-      <c r="K64" s="430"/>
-      <c r="L64" s="430"/>
-      <c r="M64" s="430"/>
-      <c r="N64" s="430"/>
-      <c r="O64" s="431"/>
+      <c r="J64" s="444"/>
+      <c r="K64" s="444"/>
+      <c r="L64" s="444"/>
+      <c r="M64" s="444"/>
+      <c r="N64" s="444"/>
+      <c r="O64" s="445"/>
       <c r="P64" s="417"/>
-      <c r="Q64" s="429" t="s">
+      <c r="Q64" s="443" t="s">
         <v>124</v>
       </c>
-      <c r="R64" s="430"/>
-      <c r="S64" s="430"/>
-      <c r="T64" s="430"/>
-      <c r="U64" s="430"/>
-      <c r="V64" s="430"/>
-      <c r="W64" s="431"/>
-      <c r="X64" s="429" t="s">
+      <c r="R64" s="444"/>
+      <c r="S64" s="444"/>
+      <c r="T64" s="444"/>
+      <c r="U64" s="444"/>
+      <c r="V64" s="444"/>
+      <c r="W64" s="445"/>
+      <c r="X64" s="443" t="s">
         <v>131</v>
       </c>
-      <c r="Y64" s="430"/>
-      <c r="Z64" s="430"/>
-      <c r="AA64" s="430"/>
-      <c r="AB64" s="430"/>
-      <c r="AC64" s="430"/>
-      <c r="AD64" s="431"/>
+      <c r="Y64" s="444"/>
+      <c r="Z64" s="444"/>
+      <c r="AA64" s="444"/>
+      <c r="AB64" s="444"/>
+      <c r="AC64" s="444"/>
+      <c r="AD64" s="445"/>
       <c r="AE64" s="417"/>
-      <c r="AF64" s="429" t="s">
+      <c r="AF64" s="443" t="s">
         <v>130</v>
       </c>
-      <c r="AG64" s="430"/>
-      <c r="AH64" s="430"/>
-      <c r="AI64" s="430"/>
-      <c r="AJ64" s="430"/>
-      <c r="AK64" s="430"/>
-      <c r="AL64" s="432"/>
-    </row>
-    <row r="65" spans="1:38" ht="20.25">
+      <c r="AG64" s="444"/>
+      <c r="AH64" s="444"/>
+      <c r="AI64" s="444"/>
+      <c r="AJ64" s="444"/>
+      <c r="AK64" s="444"/>
+      <c r="AL64" s="446"/>
+    </row>
+    <row r="65" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A65" s="418" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="433" t="s">
+      <c r="B65" s="447" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="434"/>
-      <c r="D65" s="434"/>
-      <c r="E65" s="434"/>
-      <c r="F65" s="434"/>
-      <c r="G65" s="434"/>
-      <c r="H65" s="435"/>
-      <c r="I65" s="433" t="s">
+      <c r="C65" s="448"/>
+      <c r="D65" s="448"/>
+      <c r="E65" s="448"/>
+      <c r="F65" s="448"/>
+      <c r="G65" s="448"/>
+      <c r="H65" s="449"/>
+      <c r="I65" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="434"/>
-      <c r="K65" s="434"/>
-      <c r="L65" s="434"/>
-      <c r="M65" s="434"/>
-      <c r="N65" s="434"/>
-      <c r="O65" s="435"/>
+      <c r="J65" s="448"/>
+      <c r="K65" s="448"/>
+      <c r="L65" s="448"/>
+      <c r="M65" s="448"/>
+      <c r="N65" s="448"/>
+      <c r="O65" s="449"/>
       <c r="P65" s="419"/>
-      <c r="Q65" s="433" t="s">
+      <c r="Q65" s="447" t="s">
         <v>125</v>
       </c>
-      <c r="R65" s="434"/>
-      <c r="S65" s="434"/>
-      <c r="T65" s="434"/>
-      <c r="U65" s="434"/>
-      <c r="V65" s="434"/>
-      <c r="W65" s="435"/>
-      <c r="X65" s="433" t="s">
+      <c r="R65" s="448"/>
+      <c r="S65" s="448"/>
+      <c r="T65" s="448"/>
+      <c r="U65" s="448"/>
+      <c r="V65" s="448"/>
+      <c r="W65" s="449"/>
+      <c r="X65" s="447" t="s">
         <v>127</v>
       </c>
-      <c r="Y65" s="434"/>
-      <c r="Z65" s="434"/>
-      <c r="AA65" s="434"/>
-      <c r="AB65" s="434"/>
-      <c r="AC65" s="434"/>
-      <c r="AD65" s="435"/>
+      <c r="Y65" s="448"/>
+      <c r="Z65" s="448"/>
+      <c r="AA65" s="448"/>
+      <c r="AB65" s="448"/>
+      <c r="AC65" s="448"/>
+      <c r="AD65" s="449"/>
       <c r="AE65" s="419"/>
-      <c r="AF65" s="433" t="s">
+      <c r="AF65" s="447" t="s">
         <v>76</v>
       </c>
-      <c r="AG65" s="434"/>
-      <c r="AH65" s="434"/>
-      <c r="AI65" s="434"/>
-      <c r="AJ65" s="434"/>
-      <c r="AK65" s="434"/>
-      <c r="AL65" s="436"/>
-    </row>
-    <row r="66" spans="1:38" ht="21" thickBot="1">
+      <c r="AG65" s="448"/>
+      <c r="AH65" s="448"/>
+      <c r="AI65" s="448"/>
+      <c r="AJ65" s="448"/>
+      <c r="AK65" s="448"/>
+      <c r="AL65" s="450"/>
+    </row>
+    <row r="66" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="414" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="427" t="s">
+      <c r="B66" s="441" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="427"/>
-      <c r="D66" s="427"/>
-      <c r="E66" s="427"/>
-      <c r="F66" s="427"/>
-      <c r="G66" s="427"/>
-      <c r="H66" s="427"/>
-      <c r="I66" s="427" t="s">
+      <c r="C66" s="441"/>
+      <c r="D66" s="441"/>
+      <c r="E66" s="441"/>
+      <c r="F66" s="441"/>
+      <c r="G66" s="441"/>
+      <c r="H66" s="441"/>
+      <c r="I66" s="441" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="427"/>
-      <c r="K66" s="427"/>
-      <c r="L66" s="427"/>
-      <c r="M66" s="427"/>
-      <c r="N66" s="427"/>
-      <c r="O66" s="427"/>
+      <c r="J66" s="441"/>
+      <c r="K66" s="441"/>
+      <c r="L66" s="441"/>
+      <c r="M66" s="441"/>
+      <c r="N66" s="441"/>
+      <c r="O66" s="441"/>
       <c r="P66" s="415"/>
-      <c r="Q66" s="427" t="s">
+      <c r="Q66" s="441" t="s">
         <v>126</v>
       </c>
-      <c r="R66" s="427"/>
-      <c r="S66" s="427"/>
-      <c r="T66" s="427"/>
-      <c r="U66" s="427"/>
-      <c r="V66" s="427"/>
-      <c r="W66" s="427"/>
-      <c r="X66" s="427" t="s">
+      <c r="R66" s="441"/>
+      <c r="S66" s="441"/>
+      <c r="T66" s="441"/>
+      <c r="U66" s="441"/>
+      <c r="V66" s="441"/>
+      <c r="W66" s="441"/>
+      <c r="X66" s="441" t="s">
         <v>128</v>
       </c>
-      <c r="Y66" s="427"/>
-      <c r="Z66" s="427"/>
-      <c r="AA66" s="427"/>
-      <c r="AB66" s="427"/>
-      <c r="AC66" s="427"/>
-      <c r="AD66" s="427"/>
+      <c r="Y66" s="441"/>
+      <c r="Z66" s="441"/>
+      <c r="AA66" s="441"/>
+      <c r="AB66" s="441"/>
+      <c r="AC66" s="441"/>
+      <c r="AD66" s="441"/>
       <c r="AE66" s="415"/>
-      <c r="AF66" s="427" t="s">
+      <c r="AF66" s="441" t="s">
         <v>129</v>
       </c>
-      <c r="AG66" s="427"/>
-      <c r="AH66" s="427"/>
-      <c r="AI66" s="427"/>
-      <c r="AJ66" s="427"/>
-      <c r="AK66" s="427"/>
-      <c r="AL66" s="428"/>
-    </row>
-    <row r="70" spans="1:38">
+      <c r="AG66" s="441"/>
+      <c r="AH66" s="441"/>
+      <c r="AI66" s="441"/>
+      <c r="AJ66" s="441"/>
+      <c r="AK66" s="441"/>
+      <c r="AL66" s="442"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O70" s="23"/>
       <c r="P70" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Q61:U61"/>
-    <mergeCell ref="X61:AB61"/>
-    <mergeCell ref="AF61:AJ61"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="I59:O59"/>
-    <mergeCell ref="Q59:W59"/>
-    <mergeCell ref="X59:AD59"/>
-    <mergeCell ref="AF59:AL59"/>
-    <mergeCell ref="Q60:W60"/>
-    <mergeCell ref="X60:AD60"/>
-    <mergeCell ref="AF60:AL60"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:O60"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="X2:AE2"/>
     <mergeCell ref="AF66:AL66"/>
     <mergeCell ref="X66:AD66"/>
     <mergeCell ref="B64:H64"/>
@@ -8431,6 +8454,25 @@
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="I66:O66"/>
     <mergeCell ref="Q66:W66"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="Q61:U61"/>
+    <mergeCell ref="X61:AB61"/>
+    <mergeCell ref="AF61:AJ61"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="I59:O59"/>
+    <mergeCell ref="Q59:W59"/>
+    <mergeCell ref="X59:AD59"/>
+    <mergeCell ref="AF59:AL59"/>
+    <mergeCell ref="Q60:W60"/>
+    <mergeCell ref="X60:AD60"/>
+    <mergeCell ref="AF60:AL60"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:O60"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8442,35 +8484,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="48"/>
-    <col min="2" max="2" width="16.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="48"/>
+    <col min="1" max="1" width="8.88671875" style="48"/>
+    <col min="2" max="2" width="16.44140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.75">
+    <row r="1" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="451" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="451"/>
       <c r="D1" s="451"/>
     </row>
-    <row r="2" spans="2:4" ht="18.75" thickBot="1">
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="210"/>
       <c r="C2" s="15"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:4" ht="18.75" thickBot="1">
+    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="36"/>
       <c r="C3" s="15" t="s">
         <v>17</v>
@@ -8479,12 +8521,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18.75" thickBot="1">
+    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="212"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="2:4" ht="18.75" thickBot="1">
+    <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="31"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
@@ -8493,12 +8535,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.75" thickBot="1">
+    <row r="6" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="210"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4" ht="18.75" thickBot="1">
+    <row r="7" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="28"/>
       <c r="C7" s="15" t="s">
         <v>17</v>
@@ -8507,12 +8549,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" thickBot="1">
+    <row r="8" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="210"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:4" ht="18.75" thickBot="1">
+    <row r="9" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="371"/>
       <c r="C9" s="213" t="s">
         <v>17</v>
@@ -8521,12 +8563,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75" thickBot="1">
+    <row r="10" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="210"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="2:4" ht="18.75" thickBot="1">
+    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
@@ -8535,12 +8577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18.75" thickBot="1">
+    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="212"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="2:4" ht="18.75" thickBot="1">
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>17</v>
@@ -8549,12 +8591,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18.75" thickBot="1">
+    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="211"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="2:4" ht="18.75" thickBot="1">
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29"/>
       <c r="C15" s="15" t="s">
         <v>17</v>
@@ -8563,12 +8605,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="18.75" thickBot="1">
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="210"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="372"/>
       <c r="C17" s="15" t="s">
         <v>17</v>
@@ -8577,12 +8619,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="210"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="373"/>
       <c r="C19" s="15" t="s">
         <v>17</v>
@@ -8591,12 +8633,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="210"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="374"/>
       <c r="C21" s="15" t="s">
         <v>17</v>
@@ -8605,12 +8647,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="210"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="375"/>
       <c r="C23" s="15" t="s">
         <v>17</v>
@@ -8619,12 +8661,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="210"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -8633,24 +8675,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1">
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="376"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" ht="18.75" thickBot="1">
+    <row r="27" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="37"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="210"/>
       <c r="C28" s="210"/>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="2:4" ht="21" thickBot="1">
+    <row r="29" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
         <v>17</v>
@@ -8659,12 +8701,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="210"/>
       <c r="C30" s="210"/>
       <c r="D30" s="210"/>
     </row>
-    <row r="31" spans="2:4" ht="18.75" thickBot="1">
+    <row r="31" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="30"/>
       <c r="C31" s="15" t="s">
         <v>17</v>
@@ -8673,12 +8715,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="210"/>
       <c r="C32" s="210"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1">
+    <row r="33" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="377"/>
       <c r="C33" s="15" t="s">
         <v>17</v>
@@ -8687,12 +8729,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="210"/>
       <c r="C34" s="210"/>
       <c r="D34" s="210"/>
     </row>
-    <row r="35" spans="2:4" ht="18.75" thickBot="1">
+    <row r="35" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="378"/>
       <c r="C35" s="15" t="s">
         <v>17</v>
@@ -8701,12 +8743,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="210"/>
       <c r="C36" s="210"/>
       <c r="D36" s="210"/>
     </row>
-    <row r="37" spans="2:4" ht="18.75" thickBot="1">
+    <row r="37" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="379"/>
       <c r="C37" s="15" t="s">
         <v>17</v>
@@ -8715,8 +8757,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="39" spans="2:4" ht="18.75" thickBot="1">
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="380"/>
       <c r="C39" s="15" t="s">
         <v>17</v>
@@ -8725,8 +8767,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="41" spans="2:4" ht="18.75" thickBot="1">
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="381"/>
       <c r="C41" s="15" t="s">
         <v>17</v>
@@ -8735,8 +8777,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="43" spans="2:4" ht="18.75" thickBot="1">
+    <row r="42" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="382"/>
       <c r="C43" s="15" t="s">
         <v>17</v>
